--- a/data/GestureData/Circle_V01_Pascal_Raw_labels.xlsx
+++ b/data/GestureData/Circle_V01_Pascal_Raw_labels.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6C453B-0B2D-4369-BE8E-2DC3A7B46A0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16540" yWindow="-28120" windowWidth="20880" windowHeight="24100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>label</t>
   </si>
@@ -48,11 +44,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,14 +87,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -141,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -176,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -353,260 +369,238 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A2:B6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>18.7</v>
+      </c>
+      <c r="B2">
+        <v>20.45</v>
+      </c>
       <c r="C2">
-        <v>1</v>
+        <f>(B2-A2)-2</f>
+        <v>-0.25</v>
       </c>
       <c r="D2">
-        <v>18.7</v>
-      </c>
-      <c r="E2">
-        <v>20.45</v>
-      </c>
-      <c r="F2">
-        <f>(E2-D2)-2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B3">
+        <v>22.4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C14" si="0">(B3-A3)-2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>22.35</v>
+      </c>
+      <c r="B4">
+        <v>24.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>26.65</v>
+      </c>
+      <c r="B5">
+        <v>28.55</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>30.7</v>
+      </c>
+      <c r="B6">
+        <v>32.6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>34.65</v>
+      </c>
+      <c r="B7">
+        <v>36.35</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>38.65</v>
+      </c>
+      <c r="B8">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>42.6</v>
+      </c>
+      <c r="B9">
+        <v>44.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>46.5</v>
+      </c>
+      <c r="B10">
+        <v>48.4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>50.7</v>
+      </c>
+      <c r="B11">
+        <v>52.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>58.65</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E3">
-        <v>22.4</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="0">(E3-D3)-2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>22.35</v>
-      </c>
-      <c r="E4">
-        <v>24.5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.14999999999999858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>26.65</v>
-      </c>
-      <c r="E5">
-        <v>28.55</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999997868E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>30.7</v>
-      </c>
-      <c r="E6">
-        <v>32.6</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999997868E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>34.65</v>
-      </c>
-      <c r="E7">
-        <v>36.35</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>38.65</v>
-      </c>
-      <c r="E8">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>42.6</v>
-      </c>
-      <c r="E9">
-        <v>44.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>46.5</v>
-      </c>
-      <c r="E10">
-        <v>48.4</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>50.7</v>
-      </c>
-      <c r="E11">
-        <v>52.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>54.8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>56.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>58.65</v>
-      </c>
-      <c r="E13" s="1">
-        <v>60.4</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>64.599999999999994</v>
+      </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>62.7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="F14">
         <f t="shared" si="0"/>
         <v>-0.10000000000000853</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>